--- a/外链/json format/jsoneditoronline.org/jsoneditoronline.org-referringdomains-subdomains-live-04-Feb-2021.xlsx
+++ b/外链/json format/jsoneditoronline.org/jsoneditoronline.org-referringdomains-subdomains-live-04-Feb-2021.xlsx
@@ -6040,14 +6040,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6079,38 +6072,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6125,11 +6086,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6149,8 +6124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6179,8 +6155,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6193,8 +6178,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6209,37 +6202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6251,19 +6214,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6281,7 +6232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6293,7 +6256,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6305,13 +6292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6323,7 +6304,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6341,13 +6346,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6359,13 +6370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6377,19 +6382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6400,21 +6393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6457,26 +6435,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6495,8 +6453,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6505,148 +6498,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6654,10 +6647,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7011,12 +7004,16 @@
   <dimension ref="A1:L1993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="22.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="24.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
@@ -77063,7 +77060,6 @@
       <c r="C1844" s="1">
         <v>0</v>
       </c>
-      <c r="D1844" s="1"/>
       <c r="E1844" s="1">
         <v>5</v>
       </c>
@@ -77099,7 +77095,6 @@
       <c r="C1845" s="1">
         <v>0</v>
       </c>
-      <c r="D1845" s="1"/>
       <c r="E1845" s="1">
         <v>1</v>
       </c>
@@ -77135,7 +77130,6 @@
       <c r="C1846" s="1">
         <v>0</v>
       </c>
-      <c r="D1846" s="1"/>
       <c r="E1846" s="1">
         <v>2</v>
       </c>
@@ -77171,7 +77165,6 @@
       <c r="C1847" s="1">
         <v>0</v>
       </c>
-      <c r="D1847" s="1"/>
       <c r="E1847" s="1">
         <v>39</v>
       </c>
@@ -77207,7 +77200,6 @@
       <c r="C1848" s="1">
         <v>0</v>
       </c>
-      <c r="D1848" s="1"/>
       <c r="E1848" s="1">
         <v>1</v>
       </c>
@@ -77243,7 +77235,6 @@
       <c r="C1849" s="1">
         <v>0</v>
       </c>
-      <c r="D1849" s="1"/>
       <c r="E1849" s="1">
         <v>1</v>
       </c>
@@ -77279,7 +77270,6 @@
       <c r="C1850" s="1">
         <v>0</v>
       </c>
-      <c r="D1850" s="1"/>
       <c r="E1850" s="1">
         <v>3</v>
       </c>
@@ -77315,7 +77305,6 @@
       <c r="C1851" s="1">
         <v>0</v>
       </c>
-      <c r="D1851" s="1"/>
       <c r="E1851" s="1">
         <v>2</v>
       </c>
@@ -77351,7 +77340,6 @@
       <c r="C1852" s="1">
         <v>0</v>
       </c>
-      <c r="D1852" s="1"/>
       <c r="E1852" s="1">
         <v>3</v>
       </c>
@@ -77387,7 +77375,6 @@
       <c r="C1853" s="1">
         <v>0</v>
       </c>
-      <c r="D1853" s="1"/>
       <c r="E1853" s="1">
         <v>9</v>
       </c>
@@ -77423,7 +77410,6 @@
       <c r="C1854" s="1">
         <v>0</v>
       </c>
-      <c r="D1854" s="1"/>
       <c r="E1854" s="1">
         <v>2</v>
       </c>
@@ -77459,7 +77445,6 @@
       <c r="C1855" s="1">
         <v>0</v>
       </c>
-      <c r="D1855" s="1"/>
       <c r="E1855" s="1">
         <v>1</v>
       </c>
@@ -77495,7 +77480,6 @@
       <c r="C1856" s="1">
         <v>0</v>
       </c>
-      <c r="D1856" s="1"/>
       <c r="E1856" s="1">
         <v>1</v>
       </c>
@@ -77531,7 +77515,6 @@
       <c r="C1857" s="1">
         <v>0</v>
       </c>
-      <c r="D1857" s="1"/>
       <c r="E1857" s="1">
         <v>4</v>
       </c>
@@ -77567,7 +77550,6 @@
       <c r="C1858" s="1">
         <v>0</v>
       </c>
-      <c r="D1858" s="1"/>
       <c r="E1858" s="1">
         <v>1</v>
       </c>
@@ -77603,7 +77585,6 @@
       <c r="C1859" s="1">
         <v>0</v>
       </c>
-      <c r="D1859" s="1"/>
       <c r="E1859" s="1">
         <v>1</v>
       </c>
@@ -77639,7 +77620,6 @@
       <c r="C1860" s="1">
         <v>0</v>
       </c>
-      <c r="D1860" s="1"/>
       <c r="E1860" s="1">
         <v>3</v>
       </c>
@@ -77675,7 +77655,6 @@
       <c r="C1861" s="1">
         <v>0</v>
       </c>
-      <c r="D1861" s="1"/>
       <c r="E1861" s="1">
         <v>1</v>
       </c>
@@ -77711,7 +77690,6 @@
       <c r="C1862" s="1">
         <v>0</v>
       </c>
-      <c r="D1862" s="1"/>
       <c r="E1862" s="1">
         <v>1</v>
       </c>
@@ -77747,7 +77725,6 @@
       <c r="C1863" s="1">
         <v>0</v>
       </c>
-      <c r="D1863" s="1"/>
       <c r="E1863" s="1">
         <v>1</v>
       </c>
@@ -77783,7 +77760,6 @@
       <c r="C1864" s="1">
         <v>0</v>
       </c>
-      <c r="D1864" s="1"/>
       <c r="E1864" s="1">
         <v>1</v>
       </c>
@@ -77819,7 +77795,6 @@
       <c r="C1865" s="1">
         <v>0</v>
       </c>
-      <c r="D1865" s="1"/>
       <c r="E1865" s="1">
         <v>1</v>
       </c>
@@ -77855,7 +77830,6 @@
       <c r="C1866" s="1">
         <v>0</v>
       </c>
-      <c r="D1866" s="1"/>
       <c r="E1866" s="1">
         <v>1</v>
       </c>
@@ -77891,7 +77865,6 @@
       <c r="C1867" s="1">
         <v>0</v>
       </c>
-      <c r="D1867" s="1"/>
       <c r="E1867" s="1">
         <v>1</v>
       </c>
@@ -77927,7 +77900,6 @@
       <c r="C1868" s="1">
         <v>0</v>
       </c>
-      <c r="D1868" s="1"/>
       <c r="E1868" s="1">
         <v>2</v>
       </c>
@@ -77963,7 +77935,6 @@
       <c r="C1869" s="1">
         <v>0</v>
       </c>
-      <c r="D1869" s="1"/>
       <c r="E1869" s="1">
         <v>6</v>
       </c>
@@ -77999,7 +77970,6 @@
       <c r="C1870" s="1">
         <v>0</v>
       </c>
-      <c r="D1870" s="1"/>
       <c r="E1870" s="1">
         <v>1</v>
       </c>
@@ -78035,7 +78005,6 @@
       <c r="C1871" s="1">
         <v>0</v>
       </c>
-      <c r="D1871" s="1"/>
       <c r="E1871" s="1">
         <v>2</v>
       </c>
@@ -78071,7 +78040,6 @@
       <c r="C1872" s="1">
         <v>0</v>
       </c>
-      <c r="D1872" s="1"/>
       <c r="E1872" s="1">
         <v>3</v>
       </c>
@@ -78107,7 +78075,6 @@
       <c r="C1873" s="1">
         <v>0</v>
       </c>
-      <c r="D1873" s="1"/>
       <c r="E1873" s="1">
         <v>1</v>
       </c>
@@ -78143,7 +78110,6 @@
       <c r="C1874" s="1">
         <v>0</v>
       </c>
-      <c r="D1874" s="1"/>
       <c r="E1874" s="1">
         <v>1</v>
       </c>
@@ -78179,7 +78145,6 @@
       <c r="C1875" s="1">
         <v>0</v>
       </c>
-      <c r="D1875" s="1"/>
       <c r="E1875" s="1">
         <v>1</v>
       </c>
@@ -78215,7 +78180,6 @@
       <c r="C1876" s="1">
         <v>0</v>
       </c>
-      <c r="D1876" s="1"/>
       <c r="E1876" s="1">
         <v>1</v>
       </c>
@@ -78251,7 +78215,6 @@
       <c r="C1877" s="1">
         <v>0</v>
       </c>
-      <c r="D1877" s="1"/>
       <c r="E1877" s="1">
         <v>3</v>
       </c>
@@ -78287,7 +78250,6 @@
       <c r="C1878" s="1">
         <v>0</v>
       </c>
-      <c r="D1878" s="1"/>
       <c r="E1878" s="1">
         <v>7</v>
       </c>
@@ -78323,7 +78285,6 @@
       <c r="C1879" s="1">
         <v>0</v>
       </c>
-      <c r="D1879" s="1"/>
       <c r="E1879" s="1">
         <v>1</v>
       </c>
@@ -78359,7 +78320,6 @@
       <c r="C1880" s="1">
         <v>0</v>
       </c>
-      <c r="D1880" s="1"/>
       <c r="E1880" s="1">
         <v>2</v>
       </c>
@@ -78395,7 +78355,6 @@
       <c r="C1881" s="1">
         <v>0</v>
       </c>
-      <c r="D1881" s="1"/>
       <c r="E1881" s="1">
         <v>2</v>
       </c>
@@ -78431,7 +78390,6 @@
       <c r="C1882" s="1">
         <v>0</v>
       </c>
-      <c r="D1882" s="1"/>
       <c r="E1882" s="1">
         <v>1</v>
       </c>
@@ -78467,7 +78425,6 @@
       <c r="C1883" s="1">
         <v>0</v>
       </c>
-      <c r="D1883" s="1"/>
       <c r="E1883" s="1">
         <v>1</v>
       </c>
@@ -78503,7 +78460,6 @@
       <c r="C1884" s="1">
         <v>0</v>
       </c>
-      <c r="D1884" s="1"/>
       <c r="E1884" s="1">
         <v>2</v>
       </c>
@@ -78539,7 +78495,6 @@
       <c r="C1885" s="1">
         <v>0</v>
       </c>
-      <c r="D1885" s="1"/>
       <c r="E1885" s="1">
         <v>1</v>
       </c>
@@ -78575,7 +78530,6 @@
       <c r="C1886" s="1">
         <v>0</v>
       </c>
-      <c r="D1886" s="1"/>
       <c r="E1886" s="1">
         <v>131</v>
       </c>
@@ -78611,7 +78565,6 @@
       <c r="C1887" s="1">
         <v>0</v>
       </c>
-      <c r="D1887" s="1"/>
       <c r="E1887" s="1">
         <v>1</v>
       </c>
@@ -78647,7 +78600,6 @@
       <c r="C1888" s="1">
         <v>0</v>
       </c>
-      <c r="D1888" s="1"/>
       <c r="E1888" s="1">
         <v>1</v>
       </c>
@@ -78683,7 +78635,6 @@
       <c r="C1889" s="1">
         <v>0</v>
       </c>
-      <c r="D1889" s="1"/>
       <c r="E1889" s="1">
         <v>1</v>
       </c>
@@ -78719,7 +78670,6 @@
       <c r="C1890" s="1">
         <v>0</v>
       </c>
-      <c r="D1890" s="1"/>
       <c r="E1890" s="1">
         <v>4</v>
       </c>
@@ -78755,7 +78705,6 @@
       <c r="C1891" s="1">
         <v>0</v>
       </c>
-      <c r="D1891" s="1"/>
       <c r="E1891" s="1">
         <v>2</v>
       </c>
@@ -78791,7 +78740,6 @@
       <c r="C1892" s="1">
         <v>0</v>
       </c>
-      <c r="D1892" s="1"/>
       <c r="E1892" s="1">
         <v>3</v>
       </c>
@@ -78827,7 +78775,6 @@
       <c r="C1893" s="1">
         <v>0</v>
       </c>
-      <c r="D1893" s="1"/>
       <c r="E1893" s="1">
         <v>4</v>
       </c>
@@ -78863,7 +78810,6 @@
       <c r="C1894" s="1">
         <v>0</v>
       </c>
-      <c r="D1894" s="1"/>
       <c r="E1894" s="1">
         <v>2</v>
       </c>
@@ -78899,7 +78845,6 @@
       <c r="C1895" s="1">
         <v>0</v>
       </c>
-      <c r="D1895" s="1"/>
       <c r="E1895" s="1">
         <v>2</v>
       </c>
@@ -78935,7 +78880,6 @@
       <c r="C1896" s="1">
         <v>0</v>
       </c>
-      <c r="D1896" s="1"/>
       <c r="E1896" s="1">
         <v>3</v>
       </c>
@@ -78971,7 +78915,6 @@
       <c r="C1897" s="1">
         <v>0</v>
       </c>
-      <c r="D1897" s="1"/>
       <c r="E1897" s="1">
         <v>1</v>
       </c>
@@ -79007,7 +78950,6 @@
       <c r="C1898" s="1">
         <v>0</v>
       </c>
-      <c r="D1898" s="1"/>
       <c r="E1898" s="1">
         <v>1</v>
       </c>
@@ -79043,7 +78985,6 @@
       <c r="C1899" s="1">
         <v>0</v>
       </c>
-      <c r="D1899" s="1"/>
       <c r="E1899" s="1">
         <v>1</v>
       </c>
@@ -79079,7 +79020,6 @@
       <c r="C1900" s="1">
         <v>0</v>
       </c>
-      <c r="D1900" s="1"/>
       <c r="E1900" s="1">
         <v>1</v>
       </c>
@@ -79115,7 +79055,6 @@
       <c r="C1901" s="1">
         <v>0</v>
       </c>
-      <c r="D1901" s="1"/>
       <c r="E1901" s="1">
         <v>2</v>
       </c>
@@ -79151,7 +79090,6 @@
       <c r="C1902" s="1">
         <v>0</v>
       </c>
-      <c r="D1902" s="1"/>
       <c r="E1902" s="1">
         <v>1</v>
       </c>
@@ -79187,7 +79125,6 @@
       <c r="C1903" s="1">
         <v>0</v>
       </c>
-      <c r="D1903" s="1"/>
       <c r="E1903" s="1">
         <v>1</v>
       </c>
@@ -79223,7 +79160,6 @@
       <c r="C1904" s="1">
         <v>0</v>
       </c>
-      <c r="D1904" s="1"/>
       <c r="E1904" s="1">
         <v>1</v>
       </c>
@@ -79259,7 +79195,6 @@
       <c r="C1905" s="1">
         <v>0</v>
       </c>
-      <c r="D1905" s="1"/>
       <c r="E1905" s="1">
         <v>1</v>
       </c>
@@ -79295,7 +79230,6 @@
       <c r="C1906" s="1">
         <v>0</v>
       </c>
-      <c r="D1906" s="1"/>
       <c r="E1906" s="1">
         <v>6</v>
       </c>
@@ -79331,7 +79265,6 @@
       <c r="C1907" s="1">
         <v>0</v>
       </c>
-      <c r="D1907" s="1"/>
       <c r="E1907" s="1">
         <v>3</v>
       </c>
@@ -79367,7 +79300,6 @@
       <c r="C1908" s="1">
         <v>0</v>
       </c>
-      <c r="D1908" s="1"/>
       <c r="E1908" s="1">
         <v>1</v>
       </c>
@@ -79403,7 +79335,6 @@
       <c r="C1909" s="1">
         <v>0</v>
       </c>
-      <c r="D1909" s="1"/>
       <c r="E1909" s="1">
         <v>1</v>
       </c>
@@ -79439,7 +79370,6 @@
       <c r="C1910" s="1">
         <v>0</v>
       </c>
-      <c r="D1910" s="1"/>
       <c r="E1910" s="1">
         <v>1</v>
       </c>
@@ -79475,7 +79405,6 @@
       <c r="C1911" s="1">
         <v>0</v>
       </c>
-      <c r="D1911" s="1"/>
       <c r="E1911" s="1">
         <v>1</v>
       </c>
@@ -79511,7 +79440,6 @@
       <c r="C1912" s="1">
         <v>0</v>
       </c>
-      <c r="D1912" s="1"/>
       <c r="E1912" s="1">
         <v>2</v>
       </c>
@@ -79547,7 +79475,6 @@
       <c r="C1913" s="1">
         <v>0</v>
       </c>
-      <c r="D1913" s="1"/>
       <c r="E1913" s="1">
         <v>1</v>
       </c>
@@ -79583,7 +79510,6 @@
       <c r="C1914" s="1">
         <v>0</v>
       </c>
-      <c r="D1914" s="1"/>
       <c r="E1914" s="1">
         <v>2</v>
       </c>
@@ -79619,7 +79545,6 @@
       <c r="C1915" s="1">
         <v>0</v>
       </c>
-      <c r="D1915" s="1"/>
       <c r="E1915" s="1">
         <v>1</v>
       </c>
@@ -79655,7 +79580,6 @@
       <c r="C1916" s="1">
         <v>0</v>
       </c>
-      <c r="D1916" s="1"/>
       <c r="E1916" s="1">
         <v>1</v>
       </c>
@@ -79691,7 +79615,6 @@
       <c r="C1917" s="1">
         <v>0</v>
       </c>
-      <c r="D1917" s="1"/>
       <c r="E1917" s="1">
         <v>1</v>
       </c>
@@ -79727,7 +79650,6 @@
       <c r="C1918" s="1">
         <v>0</v>
       </c>
-      <c r="D1918" s="1"/>
       <c r="E1918" s="1">
         <v>2</v>
       </c>
@@ -79763,7 +79685,6 @@
       <c r="C1919" s="1">
         <v>0</v>
       </c>
-      <c r="D1919" s="1"/>
       <c r="E1919" s="1">
         <v>2</v>
       </c>
@@ -79799,7 +79720,6 @@
       <c r="C1920" s="1">
         <v>0</v>
       </c>
-      <c r="D1920" s="1"/>
       <c r="E1920" s="1">
         <v>1</v>
       </c>
@@ -79835,7 +79755,6 @@
       <c r="C1921" s="1">
         <v>0</v>
       </c>
-      <c r="D1921" s="1"/>
       <c r="E1921" s="1">
         <v>2</v>
       </c>
@@ -79871,7 +79790,6 @@
       <c r="C1922" s="1">
         <v>0</v>
       </c>
-      <c r="D1922" s="1"/>
       <c r="E1922" s="1">
         <v>1</v>
       </c>
@@ -79907,7 +79825,6 @@
       <c r="C1923" s="1">
         <v>0</v>
       </c>
-      <c r="D1923" s="1"/>
       <c r="E1923" s="1">
         <v>1</v>
       </c>
@@ -79943,7 +79860,6 @@
       <c r="C1924" s="1">
         <v>0</v>
       </c>
-      <c r="D1924" s="1"/>
       <c r="E1924" s="1">
         <v>6</v>
       </c>
@@ -79979,7 +79895,6 @@
       <c r="C1925" s="1">
         <v>0</v>
       </c>
-      <c r="D1925" s="1"/>
       <c r="E1925" s="1">
         <v>1</v>
       </c>
@@ -80015,7 +79930,6 @@
       <c r="C1926" s="1">
         <v>0</v>
       </c>
-      <c r="D1926" s="1"/>
       <c r="E1926" s="1">
         <v>1</v>
       </c>
@@ -80051,7 +79965,6 @@
       <c r="C1927" s="1">
         <v>0</v>
       </c>
-      <c r="D1927" s="1"/>
       <c r="E1927" s="1">
         <v>1</v>
       </c>
@@ -80087,7 +80000,6 @@
       <c r="C1928" s="1">
         <v>0</v>
       </c>
-      <c r="D1928" s="1"/>
       <c r="E1928" s="1">
         <v>1</v>
       </c>
@@ -80123,7 +80035,6 @@
       <c r="C1929" s="1">
         <v>0</v>
       </c>
-      <c r="D1929" s="1"/>
       <c r="E1929" s="1">
         <v>1</v>
       </c>
@@ -80159,7 +80070,6 @@
       <c r="C1930" s="1">
         <v>0</v>
       </c>
-      <c r="D1930" s="1"/>
       <c r="E1930" s="1">
         <v>4</v>
       </c>
@@ -80195,7 +80105,6 @@
       <c r="C1931" s="1">
         <v>0</v>
       </c>
-      <c r="D1931" s="1"/>
       <c r="E1931" s="1">
         <v>3</v>
       </c>
@@ -80231,7 +80140,6 @@
       <c r="C1932" s="1">
         <v>0</v>
       </c>
-      <c r="D1932" s="1"/>
       <c r="E1932" s="1">
         <v>1</v>
       </c>
@@ -80267,7 +80175,6 @@
       <c r="C1933" s="1">
         <v>0</v>
       </c>
-      <c r="D1933" s="1"/>
       <c r="E1933" s="1">
         <v>1</v>
       </c>
@@ -80303,7 +80210,6 @@
       <c r="C1934" s="1">
         <v>0</v>
       </c>
-      <c r="D1934" s="1"/>
       <c r="E1934" s="1">
         <v>1</v>
       </c>
@@ -80339,7 +80245,6 @@
       <c r="C1935" s="1">
         <v>0</v>
       </c>
-      <c r="D1935" s="1"/>
       <c r="E1935" s="1">
         <v>3</v>
       </c>
@@ -80375,7 +80280,6 @@
       <c r="C1936" s="1">
         <v>0</v>
       </c>
-      <c r="D1936" s="1"/>
       <c r="E1936" s="1">
         <v>1</v>
       </c>
@@ -80411,7 +80315,6 @@
       <c r="C1937" s="1">
         <v>0</v>
       </c>
-      <c r="D1937" s="1"/>
       <c r="E1937" s="1">
         <v>1</v>
       </c>
@@ -80447,7 +80350,6 @@
       <c r="C1938" s="1">
         <v>0</v>
       </c>
-      <c r="D1938" s="1"/>
       <c r="E1938" s="1">
         <v>1</v>
       </c>
@@ -80483,7 +80385,6 @@
       <c r="C1939" s="1">
         <v>0</v>
       </c>
-      <c r="D1939" s="1"/>
       <c r="E1939" s="1">
         <v>1</v>
       </c>
@@ -80519,7 +80420,6 @@
       <c r="C1940" s="1">
         <v>0</v>
       </c>
-      <c r="D1940" s="1"/>
       <c r="E1940" s="1">
         <v>1</v>
       </c>
@@ -80555,7 +80455,6 @@
       <c r="C1941" s="1">
         <v>0</v>
       </c>
-      <c r="D1941" s="1"/>
       <c r="E1941" s="1">
         <v>8</v>
       </c>
@@ -80591,7 +80490,6 @@
       <c r="C1942" s="1">
         <v>0</v>
       </c>
-      <c r="D1942" s="1"/>
       <c r="E1942" s="1">
         <v>1</v>
       </c>
@@ -80627,7 +80525,6 @@
       <c r="C1943" s="1">
         <v>0</v>
       </c>
-      <c r="D1943" s="1"/>
       <c r="E1943" s="1">
         <v>1</v>
       </c>
@@ -80663,7 +80560,6 @@
       <c r="C1944" s="1">
         <v>0</v>
       </c>
-      <c r="D1944" s="1"/>
       <c r="E1944" s="1">
         <v>7</v>
       </c>
@@ -80699,7 +80595,6 @@
       <c r="C1945" s="1">
         <v>0</v>
       </c>
-      <c r="D1945" s="1"/>
       <c r="E1945" s="1">
         <v>4</v>
       </c>
@@ -80735,7 +80630,6 @@
       <c r="C1946" s="1">
         <v>0</v>
       </c>
-      <c r="D1946" s="1"/>
       <c r="E1946" s="1">
         <v>1</v>
       </c>
@@ -80771,7 +80665,6 @@
       <c r="C1947" s="1">
         <v>0</v>
       </c>
-      <c r="D1947" s="1"/>
       <c r="E1947" s="1">
         <v>1</v>
       </c>
@@ -80807,7 +80700,6 @@
       <c r="C1948" s="1">
         <v>0</v>
       </c>
-      <c r="D1948" s="1"/>
       <c r="E1948" s="1">
         <v>4</v>
       </c>
@@ -80843,7 +80735,6 @@
       <c r="C1949" s="1">
         <v>0</v>
       </c>
-      <c r="D1949" s="1"/>
       <c r="E1949" s="1">
         <v>1</v>
       </c>
@@ -80879,7 +80770,6 @@
       <c r="C1950" s="1">
         <v>0</v>
       </c>
-      <c r="D1950" s="1"/>
       <c r="E1950" s="1">
         <v>1</v>
       </c>
@@ -80915,7 +80805,6 @@
       <c r="C1951" s="1">
         <v>0</v>
       </c>
-      <c r="D1951" s="1"/>
       <c r="E1951" s="1">
         <v>5</v>
       </c>
@@ -80951,7 +80840,6 @@
       <c r="C1952" s="1">
         <v>0</v>
       </c>
-      <c r="D1952" s="1"/>
       <c r="E1952" s="1">
         <v>5</v>
       </c>
@@ -80987,7 +80875,6 @@
       <c r="C1953" s="1">
         <v>0</v>
       </c>
-      <c r="D1953" s="1"/>
       <c r="E1953" s="1">
         <v>1</v>
       </c>
@@ -81023,7 +80910,6 @@
       <c r="C1954" s="1">
         <v>0</v>
       </c>
-      <c r="D1954" s="1"/>
       <c r="E1954" s="1">
         <v>2</v>
       </c>
@@ -81059,7 +80945,6 @@
       <c r="C1955" s="1">
         <v>0</v>
       </c>
-      <c r="D1955" s="1"/>
       <c r="E1955" s="1">
         <v>2</v>
       </c>
@@ -81095,7 +80980,6 @@
       <c r="C1956" s="1">
         <v>0</v>
       </c>
-      <c r="D1956" s="1"/>
       <c r="E1956" s="1">
         <v>9</v>
       </c>
@@ -81131,7 +81015,6 @@
       <c r="C1957" s="1">
         <v>0</v>
       </c>
-      <c r="D1957" s="1"/>
       <c r="E1957" s="1">
         <v>4</v>
       </c>
@@ -81167,7 +81050,6 @@
       <c r="C1958" s="1">
         <v>0</v>
       </c>
-      <c r="D1958" s="1"/>
       <c r="E1958" s="1">
         <v>1</v>
       </c>
@@ -81203,7 +81085,6 @@
       <c r="C1959" s="1">
         <v>0</v>
       </c>
-      <c r="D1959" s="1"/>
       <c r="E1959" s="1">
         <v>1</v>
       </c>
@@ -81239,7 +81120,6 @@
       <c r="C1960" s="1">
         <v>0</v>
       </c>
-      <c r="D1960" s="1"/>
       <c r="E1960" s="1">
         <v>1</v>
       </c>
@@ -81275,7 +81155,6 @@
       <c r="C1961" s="1">
         <v>0</v>
       </c>
-      <c r="D1961" s="1"/>
       <c r="E1961" s="1">
         <v>1</v>
       </c>
@@ -81311,7 +81190,6 @@
       <c r="C1962" s="1">
         <v>0</v>
       </c>
-      <c r="D1962" s="1"/>
       <c r="E1962" s="1">
         <v>1</v>
       </c>
@@ -81347,7 +81225,6 @@
       <c r="C1963" s="1">
         <v>0</v>
       </c>
-      <c r="D1963" s="1"/>
       <c r="E1963" s="1">
         <v>1</v>
       </c>
@@ -81383,7 +81260,6 @@
       <c r="C1964" s="1">
         <v>0</v>
       </c>
-      <c r="D1964" s="1"/>
       <c r="E1964" s="1">
         <v>1</v>
       </c>
@@ -81419,7 +81295,6 @@
       <c r="C1965" s="1">
         <v>0</v>
       </c>
-      <c r="D1965" s="1"/>
       <c r="E1965" s="1">
         <v>2</v>
       </c>
@@ -81455,7 +81330,6 @@
       <c r="C1966" s="1">
         <v>0</v>
       </c>
-      <c r="D1966" s="1"/>
       <c r="E1966" s="1">
         <v>1</v>
       </c>
@@ -81491,7 +81365,6 @@
       <c r="C1967" s="1">
         <v>0</v>
       </c>
-      <c r="D1967" s="1"/>
       <c r="E1967" s="1">
         <v>1</v>
       </c>
@@ -81527,7 +81400,6 @@
       <c r="C1968" s="1">
         <v>0</v>
       </c>
-      <c r="D1968" s="1"/>
       <c r="E1968" s="1">
         <v>2</v>
       </c>
@@ -81563,7 +81435,6 @@
       <c r="C1969" s="1">
         <v>0</v>
       </c>
-      <c r="D1969" s="1"/>
       <c r="E1969" s="1">
         <v>2</v>
       </c>
@@ -81599,7 +81470,6 @@
       <c r="C1970" s="1">
         <v>0</v>
       </c>
-      <c r="D1970" s="1"/>
       <c r="E1970" s="1">
         <v>2</v>
       </c>
@@ -81635,7 +81505,6 @@
       <c r="C1971" s="1">
         <v>0</v>
       </c>
-      <c r="D1971" s="1"/>
       <c r="E1971" s="1">
         <v>1</v>
       </c>
@@ -81671,7 +81540,6 @@
       <c r="C1972" s="1">
         <v>0</v>
       </c>
-      <c r="D1972" s="1"/>
       <c r="E1972" s="1">
         <v>1</v>
       </c>
@@ -81707,7 +81575,6 @@
       <c r="C1973" s="1">
         <v>0</v>
       </c>
-      <c r="D1973" s="1"/>
       <c r="E1973" s="1">
         <v>2</v>
       </c>
@@ -81743,7 +81610,6 @@
       <c r="C1974" s="1">
         <v>0</v>
       </c>
-      <c r="D1974" s="1"/>
       <c r="E1974" s="1">
         <v>1</v>
       </c>
@@ -81779,7 +81645,6 @@
       <c r="C1975" s="1">
         <v>0</v>
       </c>
-      <c r="D1975" s="1"/>
       <c r="E1975" s="1">
         <v>2</v>
       </c>
@@ -81815,7 +81680,6 @@
       <c r="C1976" s="1">
         <v>0</v>
       </c>
-      <c r="D1976" s="1"/>
       <c r="E1976" s="1">
         <v>1</v>
       </c>
@@ -81851,7 +81715,6 @@
       <c r="C1977" s="1">
         <v>0</v>
       </c>
-      <c r="D1977" s="1"/>
       <c r="E1977" s="1">
         <v>2</v>
       </c>
@@ -81887,7 +81750,6 @@
       <c r="C1978" s="1">
         <v>0</v>
       </c>
-      <c r="D1978" s="1"/>
       <c r="E1978" s="1">
         <v>1</v>
       </c>
@@ -81923,7 +81785,6 @@
       <c r="C1979" s="1">
         <v>0</v>
       </c>
-      <c r="D1979" s="1"/>
       <c r="E1979" s="1">
         <v>1</v>
       </c>
@@ -81959,7 +81820,6 @@
       <c r="C1980" s="1">
         <v>0</v>
       </c>
-      <c r="D1980" s="1"/>
       <c r="E1980" s="1">
         <v>2</v>
       </c>
@@ -81995,7 +81855,6 @@
       <c r="C1981" s="1">
         <v>0</v>
       </c>
-      <c r="D1981" s="1"/>
       <c r="E1981" s="1">
         <v>1</v>
       </c>
@@ -82031,7 +81890,6 @@
       <c r="C1982" s="1">
         <v>0</v>
       </c>
-      <c r="D1982" s="1"/>
       <c r="E1982" s="1">
         <v>1</v>
       </c>
@@ -82067,7 +81925,6 @@
       <c r="C1983" s="1">
         <v>0</v>
       </c>
-      <c r="D1983" s="1"/>
       <c r="E1983" s="1">
         <v>3</v>
       </c>
@@ -82103,7 +81960,6 @@
       <c r="C1984" s="1">
         <v>0</v>
       </c>
-      <c r="D1984" s="1"/>
       <c r="E1984" s="1">
         <v>2</v>
       </c>
@@ -82139,7 +81995,6 @@
       <c r="C1985" s="1">
         <v>0</v>
       </c>
-      <c r="D1985" s="1"/>
       <c r="E1985" s="1">
         <v>1</v>
       </c>
@@ -82175,7 +82030,6 @@
       <c r="C1986" s="1">
         <v>0</v>
       </c>
-      <c r="D1986" s="1"/>
       <c r="E1986" s="1">
         <v>2</v>
       </c>
@@ -82211,7 +82065,6 @@
       <c r="C1987" s="1">
         <v>0</v>
       </c>
-      <c r="D1987" s="1"/>
       <c r="E1987" s="1">
         <v>4</v>
       </c>
@@ -82247,7 +82100,6 @@
       <c r="C1988" s="1">
         <v>0</v>
       </c>
-      <c r="D1988" s="1"/>
       <c r="E1988" s="1">
         <v>1</v>
       </c>
@@ -82283,7 +82135,6 @@
       <c r="C1989" s="1">
         <v>0</v>
       </c>
-      <c r="D1989" s="1"/>
       <c r="E1989" s="1">
         <v>1</v>
       </c>
@@ -82319,7 +82170,6 @@
       <c r="C1990" s="1">
         <v>0</v>
       </c>
-      <c r="D1990" s="1"/>
       <c r="E1990" s="1">
         <v>1</v>
       </c>
@@ -82355,7 +82205,6 @@
       <c r="C1991" s="1">
         <v>0</v>
       </c>
-      <c r="D1991" s="1"/>
       <c r="E1991" s="1">
         <v>4</v>
       </c>
@@ -82391,7 +82240,6 @@
       <c r="C1992" s="1">
         <v>0</v>
       </c>
-      <c r="D1992" s="1"/>
       <c r="E1992" s="1">
         <v>1</v>
       </c>
@@ -82427,7 +82275,6 @@
       <c r="C1993" s="1">
         <v>0</v>
       </c>
-      <c r="D1993" s="1"/>
       <c r="E1993" s="1">
         <v>2</v>
       </c>
